--- a/Final outputs/pivot_table_training.xlsx
+++ b/Final outputs/pivot_table_training.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>cohort</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>No_HHs_attended_agric_training</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No_HH_attendance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Total_population</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>percentage_attendance</t>
         </is>
@@ -466,18 +476,26 @@
           <t>Kitagwenda</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>1939</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>2031</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.9547021171836534</v>
       </c>
     </row>
@@ -487,18 +505,26 @@
           <t>Kitagwenda</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>1931</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>2031</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.9507631708517972</v>
       </c>
     </row>
@@ -508,18 +534,26 @@
           <t>Kitagwenda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>1924</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>2031</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.947316592811423</v>
       </c>
     </row>
@@ -529,18 +563,26 @@
           <t>Rakai</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>1940</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>2087</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.9295639674173455</v>
       </c>
     </row>
@@ -550,18 +592,26 @@
           <t>Rakai</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>1939</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>2087</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.9290848107331098</v>
       </c>
     </row>
@@ -571,19 +621,27 @@
           <t>Rakai</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1807</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F7" t="n">
         <v>2087</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.8658361284139914</v>
+      <c r="G7" t="n">
+        <v>0.9161475802587447</v>
       </c>
     </row>
   </sheetData>
